--- a/reference.xlsx
+++ b/reference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>&lt;algorithm&gt;</t>
   </si>
@@ -213,6 +213,9 @@
   <si>
     <t>具備隨機存取迭代器的容器才可使用sort，若無法隨機存取的容器，要看容器本身是否提供sort成員函式(如list)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sstream&gt;</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -737,6 +740,11 @@
       </c>
       <c r="D14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
